--- a/Data/EUDA/Cannabis_detaille/statut_pro_jamais_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/statut_pro_jamais_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,47 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Occasionally employed.jamais.jamais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Occasionally employed</t>
+          <t>Regularly employed.jamais.jamais</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Regularly employed</t>
+          <t>Student.jamais.jamais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Unemployed / discouraged.jamais.jamais</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unemployed / discouraged</t>
+          <t>Receiving social benefits / pensioners / house-makers / disable.jamais.jamais</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Receiving social benefits / pensioners / house-makers / disable</t>
+          <t>Other.jamais.jamais</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing.jamais.jamais</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.jamais.jamais</t>
         </is>
       </c>
     </row>
@@ -492,30 +487,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="D2" t="n">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="F2" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="I2" t="n">
-        <v>144</v>
-      </c>
-      <c r="J2" t="n">
         <v>666</v>
       </c>
     </row>
@@ -526,30 +518,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>521</v>
       </c>
       <c r="D3" t="n">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="E3" t="n">
-        <v>585</v>
+        <v>295</v>
       </c>
       <c r="F3" t="n">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="G3" t="n">
-        <v>256</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -560,30 +549,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>66</v>
       </c>
     </row>
@@ -594,30 +580,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E5" t="n">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F5" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
         <v>288</v>
       </c>
     </row>
@@ -628,30 +611,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
         <v>251</v>
       </c>
     </row>
@@ -662,30 +642,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F7" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>280</v>
       </c>
       <c r="I7" t="n">
-        <v>280</v>
-      </c>
-      <c r="J7" t="n">
         <v>539</v>
       </c>
     </row>
@@ -696,30 +673,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>167</v>
       </c>
       <c r="C8" t="n">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="D8" t="n">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="E8" t="n">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>35</v>
+        <v>421</v>
       </c>
       <c r="G8" t="n">
-        <v>421</v>
+        <v>263</v>
       </c>
       <c r="H8" t="n">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="I8" t="n">
-        <v>85</v>
-      </c>
-      <c r="J8" t="n">
         <v>1493</v>
       </c>
     </row>
@@ -730,24 +704,21 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>6</v>
       </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>11</v>
       </c>
     </row>
@@ -758,30 +729,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
         <v>36</v>
       </c>
     </row>
@@ -792,30 +760,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>1078</v>
       </c>
       <c r="C11" t="n">
-        <v>1078</v>
+        <v>2732</v>
       </c>
       <c r="D11" t="n">
-        <v>2732</v>
+        <v>2475</v>
       </c>
       <c r="E11" t="n">
-        <v>2475</v>
+        <v>1457</v>
       </c>
       <c r="F11" t="n">
-        <v>1457</v>
+        <v>2094</v>
       </c>
       <c r="G11" t="n">
-        <v>2094</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="I11" t="n">
-        <v>742</v>
-      </c>
-      <c r="J11" t="n">
         <v>10578</v>
       </c>
     </row>
@@ -825,29 +790,26 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>6254</v>
+      </c>
       <c r="D12" t="n">
-        <v>6254</v>
+        <v>3557</v>
       </c>
       <c r="E12" t="n">
-        <v>3557</v>
+        <v>2466</v>
       </c>
       <c r="F12" t="n">
-        <v>2466</v>
+        <v>1296</v>
       </c>
       <c r="G12" t="n">
-        <v>1296</v>
+        <v>298</v>
       </c>
       <c r="H12" t="n">
-        <v>298</v>
+        <v>1110</v>
       </c>
       <c r="I12" t="n">
-        <v>1110</v>
-      </c>
-      <c r="J12" t="n">
         <v>14981</v>
       </c>
     </row>
@@ -858,30 +820,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>64</v>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D13" t="n">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E13" t="n">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="F13" t="n">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
         <v>684</v>
       </c>
     </row>
@@ -892,30 +851,27 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1202</v>
       </c>
       <c r="D14" t="n">
-        <v>1202</v>
+        <v>309</v>
       </c>
       <c r="E14" t="n">
-        <v>309</v>
+        <v>180</v>
       </c>
       <c r="F14" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="H14" t="n">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
-      </c>
-      <c r="J14" t="n">
         <v>1895</v>
       </c>
     </row>
@@ -926,30 +882,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="D15" t="n">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="E15" t="n">
-        <v>369</v>
+        <v>526</v>
       </c>
       <c r="F15" t="n">
-        <v>526</v>
+        <v>61</v>
       </c>
       <c r="G15" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H15" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" t="n">
         <v>1463</v>
       </c>
     </row>
@@ -960,30 +913,27 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>228</v>
       </c>
       <c r="C16" t="n">
-        <v>228</v>
+        <v>963</v>
       </c>
       <c r="D16" t="n">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E16" t="n">
-        <v>965</v>
+        <v>797</v>
       </c>
       <c r="F16" t="n">
-        <v>797</v>
+        <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="H16" t="n">
-        <v>147</v>
+        <v>1060</v>
       </c>
       <c r="I16" t="n">
-        <v>1060</v>
-      </c>
-      <c r="J16" t="n">
         <v>4194</v>
       </c>
     </row>
@@ -994,30 +944,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="I17" t="n">
-        <v>132</v>
-      </c>
-      <c r="J17" t="n">
         <v>165</v>
       </c>
     </row>
@@ -1028,26 +975,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="I18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1058,30 +1002,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>34</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="H19" t="n">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
-        <v>34</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1092,28 +1033,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
-      <c r="F20" t="n">
-        <v>12</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1124,30 +1062,27 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="D21" t="n">
-        <v>777</v>
+        <v>163</v>
       </c>
       <c r="E21" t="n">
-        <v>163</v>
+        <v>826</v>
       </c>
       <c r="F21" t="n">
-        <v>826</v>
+        <v>472</v>
       </c>
       <c r="G21" t="n">
-        <v>472</v>
+        <v>77</v>
       </c>
       <c r="H21" t="n">
-        <v>77</v>
+        <v>1310</v>
       </c>
       <c r="I21" t="n">
-        <v>1310</v>
-      </c>
-      <c r="J21" t="n">
         <v>3625</v>
       </c>
     </row>
@@ -1165,7 +1100,6 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1174,30 +1108,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>85</v>
       </c>
       <c r="C23" t="n">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D23" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E23" t="n">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="F23" t="n">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" t="n">
         <v>648</v>
       </c>
     </row>
@@ -1208,30 +1139,27 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="D24" t="n">
-        <v>426</v>
+        <v>134</v>
       </c>
       <c r="E24" t="n">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="F24" t="n">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H24" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
         <v>896</v>
       </c>
     </row>
@@ -1242,30 +1170,27 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>694</v>
       </c>
       <c r="C25" t="n">
-        <v>694</v>
+        <v>183</v>
       </c>
       <c r="D25" t="n">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="E25" t="n">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="F25" t="n">
-        <v>314</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I25" t="n">
-        <v>26</v>
-      </c>
-      <c r="J25" t="n">
         <v>1606</v>
       </c>
     </row>
@@ -1276,28 +1201,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" t="n">
         <v>5</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>250</v>
       </c>
     </row>
@@ -1308,10 +1230,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1320,14 +1242,11 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+      <c r="I27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1338,30 +1257,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>1003</v>
       </c>
       <c r="C28" t="n">
-        <v>1003</v>
+        <v>1263</v>
       </c>
       <c r="D28" t="n">
-        <v>1263</v>
+        <v>2279</v>
       </c>
       <c r="E28" t="n">
-        <v>2279</v>
+        <v>3239</v>
       </c>
       <c r="F28" t="n">
-        <v>3239</v>
+        <v>282</v>
       </c>
       <c r="G28" t="n">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="H28" t="n">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
         <v>8529</v>
       </c>
     </row>
@@ -1379,7 +1295,6 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1388,28 +1303,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>256</v>
       </c>
       <c r="C30" t="n">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="D30" t="n">
-        <v>228</v>
+        <v>65</v>
       </c>
       <c r="E30" t="n">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F30" t="n">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
-      </c>
-      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>669</v>
       </c>
     </row>
@@ -1423,7 +1335,6 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1439,7 +1350,6 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1455,7 +1365,6 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1471,7 +1380,6 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1487,7 +1395,6 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
